--- a/Code/Results/Cases/Case_2_204/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_204/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9879878000034082</v>
+        <v>1.036335610413886</v>
       </c>
       <c r="D2">
-        <v>1.008207956301881</v>
+        <v>1.036707749220278</v>
       </c>
       <c r="E2">
-        <v>0.9981878423534429</v>
+        <v>1.053338013818284</v>
       </c>
       <c r="F2">
-        <v>1.000865509174274</v>
+        <v>1.059300192726017</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040681791630717</v>
+        <v>1.033245217137009</v>
       </c>
       <c r="J2">
-        <v>1.010533827614948</v>
+        <v>1.041444486482763</v>
       </c>
       <c r="K2">
-        <v>1.019554113465927</v>
+        <v>1.0395007198573</v>
       </c>
       <c r="L2">
-        <v>1.009672481277286</v>
+        <v>1.056084258852767</v>
       </c>
       <c r="M2">
-        <v>1.012312799234968</v>
+        <v>1.062030073017463</v>
       </c>
       <c r="N2">
-        <v>1.011968901560011</v>
+        <v>1.042923457108921</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9965745579251809</v>
+        <v>1.037948973991986</v>
       </c>
       <c r="D3">
-        <v>1.014513561649776</v>
+        <v>1.037883026318039</v>
       </c>
       <c r="E3">
-        <v>1.006036717644354</v>
+        <v>1.054940906084475</v>
       </c>
       <c r="F3">
-        <v>1.009499394849058</v>
+        <v>1.061061365101226</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043381822951184</v>
+        <v>1.033621730457677</v>
       </c>
       <c r="J3">
-        <v>1.017159041533287</v>
+        <v>1.042698429936646</v>
       </c>
       <c r="K3">
-        <v>1.024964046553037</v>
+        <v>1.040484684890655</v>
       </c>
       <c r="L3">
-        <v>1.016592935875436</v>
+        <v>1.057498153647113</v>
       </c>
       <c r="M3">
-        <v>1.020012155048891</v>
+        <v>1.063603053022115</v>
       </c>
       <c r="N3">
-        <v>1.018603524042037</v>
+        <v>1.044179181306337</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001933732905757</v>
+        <v>1.038990042956107</v>
       </c>
       <c r="D4">
-        <v>1.018450459318244</v>
+        <v>1.038640820074643</v>
       </c>
       <c r="E4">
-        <v>1.01095288406101</v>
+        <v>1.055976589284304</v>
       </c>
       <c r="F4">
-        <v>1.014905843964128</v>
+        <v>1.062199395332664</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045049312567956</v>
+        <v>1.033862425593763</v>
       </c>
       <c r="J4">
-        <v>1.021288102611841</v>
+        <v>1.043506623500186</v>
       </c>
       <c r="K4">
-        <v>1.028331188930855</v>
+        <v>1.041118124702668</v>
       </c>
       <c r="L4">
-        <v>1.020920890602438</v>
+        <v>1.058411063236324</v>
       </c>
       <c r="M4">
-        <v>1.02482763663547</v>
+        <v>1.064618861336648</v>
       </c>
       <c r="N4">
-        <v>1.022738448860932</v>
+        <v>1.044988522597439</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004142602063441</v>
+        <v>1.039427029632583</v>
       </c>
       <c r="D5">
-        <v>1.020073295731872</v>
+        <v>1.038958760392957</v>
       </c>
       <c r="E5">
-        <v>1.012983251408296</v>
+        <v>1.056411643722245</v>
       </c>
       <c r="F5">
-        <v>1.017138397905278</v>
+        <v>1.06267746067458</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045732263345629</v>
+        <v>1.033962914604342</v>
       </c>
       <c r="J5">
-        <v>1.022988464556792</v>
+        <v>1.043845633179999</v>
       </c>
       <c r="K5">
-        <v>1.029716660899688</v>
+        <v>1.041383651545404</v>
       </c>
       <c r="L5">
-        <v>1.022706729696</v>
+        <v>1.058794387971641</v>
       </c>
       <c r="M5">
-        <v>1.026814758683174</v>
+        <v>1.065045436079183</v>
       </c>
       <c r="N5">
-        <v>1.02444122551488</v>
+        <v>1.045328013709883</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004510975968562</v>
+        <v>1.039500362164619</v>
       </c>
       <c r="D6">
-        <v>1.020343942905068</v>
+        <v>1.03901210688501</v>
       </c>
       <c r="E6">
-        <v>1.013322094189514</v>
+        <v>1.056484671265158</v>
       </c>
       <c r="F6">
-        <v>1.017510966550598</v>
+        <v>1.062757709045087</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045845901781056</v>
+        <v>1.033979746241228</v>
       </c>
       <c r="J6">
-        <v>1.023271944095062</v>
+        <v>1.043902510395298</v>
       </c>
       <c r="K6">
-        <v>1.029947575133554</v>
+        <v>1.041428189649567</v>
       </c>
       <c r="L6">
-        <v>1.023004670010969</v>
+        <v>1.058858723061695</v>
       </c>
       <c r="M6">
-        <v>1.027146287237716</v>
+        <v>1.065117032558397</v>
       </c>
       <c r="N6">
-        <v>1.024725107626609</v>
+        <v>1.04538497169735</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001963417524047</v>
+        <v>1.038995884643816</v>
       </c>
       <c r="D7">
-        <v>1.018472267829579</v>
+        <v>1.038645070897897</v>
       </c>
       <c r="E7">
-        <v>1.010980153749216</v>
+        <v>1.05598240385017</v>
       </c>
       <c r="F7">
-        <v>1.014935830338951</v>
+        <v>1.062205784672785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04505850791548</v>
+        <v>1.033863771075804</v>
       </c>
       <c r="J7">
-        <v>1.021310959527554</v>
+        <v>1.043511156317597</v>
       </c>
       <c r="K7">
-        <v>1.028349817510786</v>
+        <v>1.041121675705933</v>
       </c>
       <c r="L7">
-        <v>1.020944882370352</v>
+        <v>1.058416187043083</v>
       </c>
       <c r="M7">
-        <v>1.024854332052767</v>
+        <v>1.064624563084642</v>
       </c>
       <c r="N7">
-        <v>1.022761338236087</v>
+        <v>1.04499306185197</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.990932464803138</v>
+        <v>1.036881458831213</v>
       </c>
       <c r="D8">
-        <v>1.010369933176826</v>
+        <v>1.037105501017158</v>
       </c>
       <c r="E8">
-        <v>1.000875677348599</v>
+        <v>1.053880035132238</v>
       </c>
       <c r="F8">
-        <v>1.003822493698833</v>
+        <v>1.059895720900379</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04161139714145</v>
+        <v>1.033373071063797</v>
       </c>
       <c r="J8">
-        <v>1.01280700703361</v>
+        <v>1.041868928974059</v>
       </c>
       <c r="K8">
-        <v>1.021411245656749</v>
+        <v>1.039833932976304</v>
       </c>
       <c r="L8">
-        <v>1.012043800079369</v>
+        <v>1.056562506374704</v>
       </c>
       <c r="M8">
-        <v>1.014950934644121</v>
+        <v>1.062562093009496</v>
       </c>
       <c r="N8">
-        <v>1.014245309154185</v>
+        <v>1.043348502357238</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9698298647208199</v>
+        <v>1.033132932485288</v>
       </c>
       <c r="D9">
-        <v>0.9948904385762999</v>
+        <v>1.034371643023869</v>
       </c>
       <c r="E9">
-        <v>0.9816960198732104</v>
+        <v>1.050163437123736</v>
       </c>
       <c r="F9">
-        <v>0.9827141896779681</v>
+        <v>1.055812543241163</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034876513478582</v>
+        <v>1.032485776750365</v>
       </c>
       <c r="J9">
-        <v>0.9964949151889315</v>
+        <v>1.038950254263901</v>
       </c>
       <c r="K9">
-        <v>1.008066962414604</v>
+        <v>1.037539541877318</v>
       </c>
       <c r="L9">
-        <v>0.9950932154476231</v>
+        <v>1.053280493782769</v>
       </c>
       <c r="M9">
-        <v>0.996094084391356</v>
+        <v>1.058911816211804</v>
       </c>
       <c r="N9">
-        <v>0.9979100522680642</v>
+        <v>1.040425682794216</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9543882543623271</v>
+        <v>1.030617933222223</v>
       </c>
       <c r="D10">
-        <v>0.9835918081948506</v>
+        <v>1.032534507281851</v>
       </c>
       <c r="E10">
-        <v>0.967775842055136</v>
+        <v>1.047676960072453</v>
       </c>
       <c r="F10">
-        <v>0.9673811996480657</v>
+        <v>1.053081206383013</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029859602214482</v>
+        <v>1.031878832833938</v>
       </c>
       <c r="J10">
-        <v>0.9845361757359309</v>
+        <v>1.036987170594801</v>
       </c>
       <c r="K10">
-        <v>0.9982637749182225</v>
+        <v>1.035992533519511</v>
       </c>
       <c r="L10">
-        <v>0.9827523526116098</v>
+        <v>1.051081350540496</v>
       </c>
       <c r="M10">
-        <v>0.9823654764391967</v>
+        <v>1.056466865732703</v>
       </c>
       <c r="N10">
-        <v>0.9859343300333536</v>
+        <v>1.038459811321137</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9473059708674927</v>
+        <v>1.029524949407738</v>
       </c>
       <c r="D11">
-        <v>0.9784202614204294</v>
+        <v>1.031735443485938</v>
       </c>
       <c r="E11">
-        <v>0.9614217268131067</v>
+        <v>1.046598055911894</v>
       </c>
       <c r="F11">
-        <v>0.9603780473473567</v>
+        <v>1.051896146386361</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02753945539628</v>
+        <v>1.031612316348034</v>
       </c>
       <c r="J11">
-        <v>0.9790479514613337</v>
+        <v>1.036132898542676</v>
       </c>
       <c r="K11">
-        <v>0.9937609465911564</v>
+        <v>1.035318428794749</v>
       </c>
       <c r="L11">
-        <v>0.9771097848961887</v>
+        <v>1.050126310291619</v>
       </c>
       <c r="M11">
-        <v>0.9760879634755881</v>
+        <v>1.055405303620334</v>
       </c>
       <c r="N11">
-        <v>0.9804383118507785</v>
+        <v>1.037604326104711</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.944608536634001</v>
+        <v>1.029118354892474</v>
       </c>
       <c r="D12">
-        <v>0.9764525405105233</v>
+        <v>1.031438089413927</v>
       </c>
       <c r="E12">
-        <v>0.9590065217673673</v>
+        <v>1.046196952182751</v>
       </c>
       <c r="F12">
-        <v>0.957715414720245</v>
+        <v>1.051455590696645</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026653097159367</v>
+        <v>1.031512759359097</v>
       </c>
       <c r="J12">
-        <v>0.9769573452993431</v>
+        <v>1.03581493479352</v>
       </c>
       <c r="K12">
-        <v>0.9920452183132622</v>
+        <v>1.035067390315669</v>
       </c>
       <c r="L12">
-        <v>0.9749636138656695</v>
+        <v>1.04977113300599</v>
       </c>
       <c r="M12">
-        <v>0.9737001753507838</v>
+        <v>1.055010545276829</v>
       </c>
       <c r="N12">
-        <v>0.9783447367882422</v>
+        <v>1.037285910810561</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9451902973133812</v>
+        <v>1.029205598715121</v>
       </c>
       <c r="D13">
-        <v>0.9768768270060281</v>
+        <v>1.031501897743273</v>
       </c>
       <c r="E13">
-        <v>0.9595271871149749</v>
+        <v>1.046283006384439</v>
       </c>
       <c r="F13">
-        <v>0.9582894547888831</v>
+        <v>1.051550108449394</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026844377237157</v>
+        <v>1.031534140120306</v>
       </c>
       <c r="J13">
-        <v>0.9774082402968348</v>
+        <v>1.035883168654718</v>
       </c>
       <c r="K13">
-        <v>0.9924152811157946</v>
+        <v>1.035121268298359</v>
       </c>
       <c r="L13">
-        <v>0.9754263460152276</v>
+        <v>1.049847339529438</v>
       </c>
       <c r="M13">
-        <v>0.9742150081272066</v>
+        <v>1.05509524272912</v>
       </c>
       <c r="N13">
-        <v>0.9787962721083486</v>
+        <v>1.037354241571668</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9470844086283802</v>
+        <v>1.029491352742392</v>
       </c>
       <c r="D14">
-        <v>0.9782585942253139</v>
+        <v>1.031710875303655</v>
       </c>
       <c r="E14">
-        <v>0.9612232452841456</v>
+        <v>1.046564907785972</v>
       </c>
       <c r="F14">
-        <v>0.960159247643482</v>
+        <v>1.051859737584957</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02746670464611</v>
+        <v>1.031604098402671</v>
       </c>
       <c r="J14">
-        <v>0.9788762378027177</v>
+        <v>1.036106628867766</v>
       </c>
       <c r="K14">
-        <v>0.9936200330645558</v>
+        <v>1.035297691105663</v>
       </c>
       <c r="L14">
-        <v>0.9769334415728582</v>
+        <v>1.050096960129229</v>
       </c>
       <c r="M14">
-        <v>0.9758917699325512</v>
+        <v>1.055372681969996</v>
       </c>
       <c r="N14">
-        <v>0.9802663543390712</v>
+        <v>1.03757801912385</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9482423475796332</v>
+        <v>1.029667333731932</v>
       </c>
       <c r="D15">
-        <v>0.9791035891475713</v>
+        <v>1.031839560610782</v>
       </c>
       <c r="E15">
-        <v>0.9622607591141643</v>
+        <v>1.046738549662802</v>
       </c>
       <c r="F15">
-        <v>0.9613029395656548</v>
+        <v>1.052050460613601</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02784681051548</v>
+        <v>1.031647127559561</v>
       </c>
       <c r="J15">
-        <v>0.9797736447884116</v>
+        <v>1.03624422372595</v>
       </c>
       <c r="K15">
-        <v>0.994356453862729</v>
+        <v>1.035406305152262</v>
       </c>
       <c r="L15">
-        <v>0.9778551753602078</v>
+        <v>1.050250701886959</v>
       </c>
       <c r="M15">
-        <v>0.9769172544714341</v>
+        <v>1.055543561806169</v>
       </c>
       <c r="N15">
-        <v>0.9811650357456191</v>
+        <v>1.037715809382515</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9548493475769537</v>
+        <v>1.030690385999362</v>
       </c>
       <c r="D16">
-        <v>0.9839287506445185</v>
+        <v>1.0325874624451</v>
       </c>
       <c r="E16">
-        <v>0.9681901787649405</v>
+        <v>1.047748514962983</v>
       </c>
       <c r="F16">
-        <v>0.9678377647629048</v>
+        <v>1.053159803627218</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030010277437107</v>
+        <v>1.031896442226254</v>
       </c>
       <c r="J16">
-        <v>0.9848934345767638</v>
+        <v>1.037043775427306</v>
       </c>
       <c r="K16">
-        <v>0.9985568172129989</v>
+        <v>1.036037181536906</v>
       </c>
       <c r="L16">
-        <v>0.9831200964568557</v>
+        <v>1.051144673416925</v>
       </c>
       <c r="M16">
-        <v>0.9827745889136459</v>
+        <v>1.056537256205042</v>
       </c>
       <c r="N16">
-        <v>0.9862920962227186</v>
+        <v>1.038516496538996</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9588829836108861</v>
+        <v>1.031331045678612</v>
       </c>
       <c r="D17">
-        <v>0.9868775405957949</v>
+        <v>1.033055638495014</v>
       </c>
       <c r="E17">
-        <v>0.9718182236563827</v>
+        <v>1.048381429337389</v>
       </c>
       <c r="F17">
-        <v>0.9718350981238165</v>
+        <v>1.053855019223091</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031326258027505</v>
+        <v>1.032051835679836</v>
       </c>
       <c r="J17">
-        <v>0.9880183740304039</v>
+        <v>1.037544168820406</v>
       </c>
       <c r="K17">
-        <v>1.001119633833532</v>
+        <v>1.03643177218528</v>
       </c>
       <c r="L17">
-        <v>0.9863391085108411</v>
+        <v>1.051704680495484</v>
       </c>
       <c r="M17">
-        <v>0.9863556642638863</v>
+        <v>1.05715979300366</v>
       </c>
       <c r="N17">
-        <v>0.9894214734488186</v>
+        <v>1.039017600548111</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9611980826830323</v>
+        <v>1.031704349349039</v>
       </c>
       <c r="D18">
-        <v>0.9885709510273396</v>
+        <v>1.033328373680561</v>
       </c>
       <c r="E18">
-        <v>0.9739033399374298</v>
+        <v>1.048750382079084</v>
       </c>
       <c r="F18">
-        <v>0.9741320739906391</v>
+        <v>1.054260298775509</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03207976552396</v>
+        <v>1.032142116783445</v>
       </c>
       <c r="J18">
-        <v>0.9898116009618809</v>
+        <v>1.037835631131653</v>
       </c>
       <c r="K18">
-        <v>1.00258992475103</v>
+        <v>1.036661521758398</v>
       </c>
       <c r="L18">
-        <v>0.988188271508344</v>
+        <v>1.05203105416775</v>
       </c>
       <c r="M18">
-        <v>0.9884127779465035</v>
+        <v>1.057522631017408</v>
       </c>
       <c r="N18">
-        <v>0.9912172469682243</v>
+        <v>1.03930947676927</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9619812858605138</v>
+        <v>1.031831571858127</v>
       </c>
       <c r="D19">
-        <v>0.9891439875557325</v>
+        <v>1.033421311272417</v>
       </c>
       <c r="E19">
-        <v>0.9746092065992343</v>
+        <v>1.04887614928759</v>
       </c>
       <c r="F19">
-        <v>0.9749095993345691</v>
+        <v>1.054398450421223</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032334368603847</v>
+        <v>1.032172839832236</v>
       </c>
       <c r="J19">
-        <v>0.9904181926923112</v>
+        <v>1.037934943272024</v>
       </c>
       <c r="K19">
-        <v>1.003087212952236</v>
+        <v>1.036739791410487</v>
       </c>
       <c r="L19">
-        <v>0.98881411419749</v>
+        <v>1.052142293912172</v>
       </c>
       <c r="M19">
-        <v>0.9891089958591283</v>
+        <v>1.05764630280798</v>
       </c>
       <c r="N19">
-        <v>0.9918247001284889</v>
+        <v>1.039408929944272</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9584541557533578</v>
+        <v>1.031262348606441</v>
       </c>
       <c r="D20">
-        <v>0.9865639438346465</v>
+        <v>1.033005443284532</v>
       </c>
       <c r="E20">
-        <v>0.9714322212719392</v>
+        <v>1.048313546004334</v>
       </c>
       <c r="F20">
-        <v>0.971409845714107</v>
+        <v>1.053780452855438</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031186538010901</v>
+        <v>1.032035200416855</v>
       </c>
       <c r="J20">
-        <v>0.9876861851401546</v>
+        <v>1.037490523700523</v>
       </c>
       <c r="K20">
-        <v>1.000847237415438</v>
+        <v>1.036389478658487</v>
       </c>
       <c r="L20">
-        <v>0.9859967157515509</v>
+        <v>1.051644624949225</v>
       </c>
       <c r="M20">
-        <v>0.9859747644918261</v>
+        <v>1.057093029465751</v>
       </c>
       <c r="N20">
-        <v>0.9890888128122425</v>
+        <v>1.038963879246004</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9465285477959938</v>
+        <v>1.029407222308404</v>
       </c>
       <c r="D21">
-        <v>0.9778530325834749</v>
+        <v>1.031649351775939</v>
       </c>
       <c r="E21">
-        <v>0.9607253696525855</v>
+        <v>1.046481904640538</v>
       </c>
       <c r="F21">
-        <v>0.9596103933450107</v>
+        <v>1.051768569903083</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02728414340841</v>
+        <v>1.031583512949368</v>
       </c>
       <c r="J21">
-        <v>0.9784454342108165</v>
+        <v>1.036040843415071</v>
       </c>
       <c r="K21">
-        <v>0.9932664949017325</v>
+        <v>1.035245756890688</v>
       </c>
       <c r="L21">
-        <v>0.9764910749529955</v>
+        <v>1.050023465134133</v>
       </c>
       <c r="M21">
-        <v>0.9753996059769142</v>
+        <v>1.055290995477421</v>
       </c>
       <c r="N21">
-        <v>0.9798349389566559</v>
+        <v>1.037512140248266</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9386395865328062</v>
+        <v>1.028237284420058</v>
       </c>
       <c r="D22">
-        <v>0.9721024409056495</v>
+        <v>1.030793558252417</v>
       </c>
       <c r="E22">
-        <v>0.9536715667534008</v>
+        <v>1.045328243188202</v>
       </c>
       <c r="F22">
-        <v>0.9518324338640178</v>
+        <v>1.050501461436864</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024687018594316</v>
+        <v>1.031296271821579</v>
       </c>
       <c r="J22">
-        <v>0.9723308935650049</v>
+        <v>1.035125610762432</v>
       </c>
       <c r="K22">
-        <v>0.9882475792936403</v>
+        <v>1.034522911711704</v>
       </c>
       <c r="L22">
-        <v>0.970220269098796</v>
+        <v>1.049001667134939</v>
       </c>
       <c r="M22">
-        <v>0.9684225499136687</v>
+        <v>1.054155392541662</v>
       </c>
       <c r="N22">
-        <v>0.9737117149617794</v>
+        <v>1.036595607860281</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.942861506799747</v>
+        <v>1.028857831779814</v>
       </c>
       <c r="D23">
-        <v>0.975178727897291</v>
+        <v>1.031247533817561</v>
       </c>
       <c r="E23">
-        <v>0.9574437074291582</v>
+        <v>1.045940018524227</v>
       </c>
       <c r="F23">
-        <v>0.9559922762649327</v>
+        <v>1.051173389227819</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026078305460496</v>
+        <v>1.031448852984364</v>
       </c>
       <c r="J23">
-        <v>0.9756032787078239</v>
+        <v>1.035611153286835</v>
       </c>
       <c r="K23">
-        <v>0.9909338328439457</v>
+        <v>1.034906463332512</v>
       </c>
       <c r="L23">
-        <v>0.9735744794760923</v>
+        <v>1.049543583803669</v>
       </c>
       <c r="M23">
-        <v>0.9721546125647864</v>
+        <v>1.054757647560098</v>
       </c>
       <c r="N23">
-        <v>0.9769887472668495</v>
+        <v>1.037081839910762</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9586480404275649</v>
+        <v>1.031293391037474</v>
       </c>
       <c r="D24">
-        <v>0.9867057264627932</v>
+        <v>1.033028125402474</v>
       </c>
       <c r="E24">
-        <v>0.9716067346854242</v>
+        <v>1.04834422022638</v>
       </c>
       <c r="F24">
-        <v>0.9716021054099827</v>
+        <v>1.053814146891567</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031249714816232</v>
+        <v>1.032042718280108</v>
       </c>
       <c r="J24">
-        <v>0.9878363777554552</v>
+        <v>1.037514764883881</v>
       </c>
       <c r="K24">
-        <v>1.000970397194382</v>
+        <v>1.036408590544932</v>
       </c>
       <c r="L24">
-        <v>0.9861515157712976</v>
+        <v>1.051671762296593</v>
       </c>
       <c r="M24">
-        <v>0.9861469741213008</v>
+        <v>1.0571231978911</v>
       </c>
       <c r="N24">
-        <v>0.9892392187182842</v>
+        <v>1.038988154854623</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9755065599457294</v>
+        <v>1.034104776961387</v>
       </c>
       <c r="D25">
-        <v>0.9990508168955915</v>
+        <v>1.035080941841678</v>
       </c>
       <c r="E25">
-        <v>0.9868370636897013</v>
+        <v>1.051125755971845</v>
       </c>
       <c r="F25">
-        <v>0.9883741158089688</v>
+        <v>1.05686970968785</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036703737632021</v>
+        <v>1.032717865110588</v>
       </c>
       <c r="J25">
-        <v>1.000887308417629</v>
+        <v>1.039707807601275</v>
       </c>
       <c r="K25">
-        <v>1.011663885600903</v>
+        <v>1.03813573263671</v>
       </c>
       <c r="L25">
-        <v>0.9996432129450376</v>
+        <v>1.054130887086238</v>
       </c>
       <c r="M25">
-        <v>1.001155630134118</v>
+        <v>1.05985746251932</v>
       </c>
       <c r="N25">
-        <v>1.002308683198961</v>
+        <v>1.041184311944222</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_204/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_204/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036335610413886</v>
+        <v>0.9879878000034075</v>
       </c>
       <c r="D2">
-        <v>1.036707749220278</v>
+        <v>1.00820795630188</v>
       </c>
       <c r="E2">
-        <v>1.053338013818284</v>
+        <v>0.9981878423534426</v>
       </c>
       <c r="F2">
-        <v>1.059300192726017</v>
+        <v>1.000865509174274</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033245217137009</v>
+        <v>1.040681791630717</v>
       </c>
       <c r="J2">
-        <v>1.041444486482763</v>
+        <v>1.010533827614947</v>
       </c>
       <c r="K2">
-        <v>1.0395007198573</v>
+        <v>1.019554113465926</v>
       </c>
       <c r="L2">
-        <v>1.056084258852767</v>
+        <v>1.009672481277286</v>
       </c>
       <c r="M2">
-        <v>1.062030073017463</v>
+        <v>1.012312799234967</v>
       </c>
       <c r="N2">
-        <v>1.042923457108921</v>
+        <v>1.01196890156001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037948973991986</v>
+        <v>0.9965745579251816</v>
       </c>
       <c r="D3">
-        <v>1.037883026318039</v>
+        <v>1.014513561649777</v>
       </c>
       <c r="E3">
-        <v>1.054940906084475</v>
+        <v>1.006036717644354</v>
       </c>
       <c r="F3">
-        <v>1.061061365101226</v>
+        <v>1.009499394849058</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033621730457677</v>
+        <v>1.043381822951184</v>
       </c>
       <c r="J3">
-        <v>1.042698429936646</v>
+        <v>1.017159041533288</v>
       </c>
       <c r="K3">
-        <v>1.040484684890655</v>
+        <v>1.024964046553037</v>
       </c>
       <c r="L3">
-        <v>1.057498153647113</v>
+        <v>1.016592935875437</v>
       </c>
       <c r="M3">
-        <v>1.063603053022115</v>
+        <v>1.020012155048892</v>
       </c>
       <c r="N3">
-        <v>1.044179181306337</v>
+        <v>1.018603524042038</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038990042956107</v>
+        <v>1.001933732905758</v>
       </c>
       <c r="D4">
-        <v>1.038640820074643</v>
+        <v>1.018450459318245</v>
       </c>
       <c r="E4">
-        <v>1.055976589284304</v>
+        <v>1.010952884061012</v>
       </c>
       <c r="F4">
-        <v>1.062199395332664</v>
+        <v>1.014905843964129</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033862425593763</v>
+        <v>1.045049312567957</v>
       </c>
       <c r="J4">
-        <v>1.043506623500186</v>
+        <v>1.021288102611841</v>
       </c>
       <c r="K4">
-        <v>1.041118124702668</v>
+        <v>1.028331188930856</v>
       </c>
       <c r="L4">
-        <v>1.058411063236324</v>
+        <v>1.020920890602439</v>
       </c>
       <c r="M4">
-        <v>1.064618861336648</v>
+        <v>1.024827636635471</v>
       </c>
       <c r="N4">
-        <v>1.044988522597439</v>
+        <v>1.022738448860933</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039427029632583</v>
+        <v>1.004142602063442</v>
       </c>
       <c r="D5">
-        <v>1.038958760392957</v>
+        <v>1.020073295731873</v>
       </c>
       <c r="E5">
-        <v>1.056411643722245</v>
+        <v>1.012983251408297</v>
       </c>
       <c r="F5">
-        <v>1.06267746067458</v>
+        <v>1.017138397905279</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033962914604342</v>
+        <v>1.045732263345629</v>
       </c>
       <c r="J5">
-        <v>1.043845633179999</v>
+        <v>1.022988464556793</v>
       </c>
       <c r="K5">
-        <v>1.041383651545404</v>
+        <v>1.029716660899689</v>
       </c>
       <c r="L5">
-        <v>1.058794387971641</v>
+        <v>1.022706729696001</v>
       </c>
       <c r="M5">
-        <v>1.065045436079183</v>
+        <v>1.026814758683174</v>
       </c>
       <c r="N5">
-        <v>1.045328013709883</v>
+        <v>1.024441225514881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039500362164619</v>
+        <v>1.004510975968562</v>
       </c>
       <c r="D6">
-        <v>1.03901210688501</v>
+        <v>1.020343942905068</v>
       </c>
       <c r="E6">
-        <v>1.056484671265158</v>
+        <v>1.013322094189514</v>
       </c>
       <c r="F6">
-        <v>1.062757709045087</v>
+        <v>1.017510966550598</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033979746241228</v>
+        <v>1.045845901781056</v>
       </c>
       <c r="J6">
-        <v>1.043902510395298</v>
+        <v>1.023271944095062</v>
       </c>
       <c r="K6">
-        <v>1.041428189649567</v>
+        <v>1.029947575133554</v>
       </c>
       <c r="L6">
-        <v>1.058858723061695</v>
+        <v>1.023004670010969</v>
       </c>
       <c r="M6">
-        <v>1.065117032558397</v>
+        <v>1.027146287237716</v>
       </c>
       <c r="N6">
-        <v>1.04538497169735</v>
+        <v>1.02472510762661</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038995884643816</v>
+        <v>1.001963417524046</v>
       </c>
       <c r="D7">
-        <v>1.038645070897897</v>
+        <v>1.018472267829579</v>
       </c>
       <c r="E7">
-        <v>1.05598240385017</v>
+        <v>1.010980153749217</v>
       </c>
       <c r="F7">
-        <v>1.062205784672785</v>
+        <v>1.014935830338952</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033863771075804</v>
+        <v>1.04505850791548</v>
       </c>
       <c r="J7">
-        <v>1.043511156317597</v>
+        <v>1.021310959527553</v>
       </c>
       <c r="K7">
-        <v>1.041121675705933</v>
+        <v>1.028349817510786</v>
       </c>
       <c r="L7">
-        <v>1.058416187043083</v>
+        <v>1.020944882370352</v>
       </c>
       <c r="M7">
-        <v>1.064624563084642</v>
+        <v>1.024854332052767</v>
       </c>
       <c r="N7">
-        <v>1.04499306185197</v>
+        <v>1.022761338236087</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036881458831213</v>
+        <v>0.9909324648031365</v>
       </c>
       <c r="D8">
-        <v>1.037105501017158</v>
+        <v>1.010369933176825</v>
       </c>
       <c r="E8">
-        <v>1.053880035132238</v>
+        <v>1.000875677348598</v>
       </c>
       <c r="F8">
-        <v>1.059895720900379</v>
+        <v>1.003822493698831</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033373071063797</v>
+        <v>1.041611397141449</v>
       </c>
       <c r="J8">
-        <v>1.041868928974059</v>
+        <v>1.012807007033609</v>
       </c>
       <c r="K8">
-        <v>1.039833932976304</v>
+        <v>1.021411245656748</v>
       </c>
       <c r="L8">
-        <v>1.056562506374704</v>
+        <v>1.012043800079368</v>
       </c>
       <c r="M8">
-        <v>1.062562093009496</v>
+        <v>1.01495093464412</v>
       </c>
       <c r="N8">
-        <v>1.043348502357238</v>
+        <v>1.014245309154184</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033132932485288</v>
+        <v>0.9698298647208213</v>
       </c>
       <c r="D9">
-        <v>1.034371643023869</v>
+        <v>0.9948904385763012</v>
       </c>
       <c r="E9">
-        <v>1.050163437123736</v>
+        <v>0.9816960198732114</v>
       </c>
       <c r="F9">
-        <v>1.055812543241163</v>
+        <v>0.9827141896779691</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032485776750365</v>
+        <v>1.034876513478583</v>
       </c>
       <c r="J9">
-        <v>1.038950254263901</v>
+        <v>0.9964949151889331</v>
       </c>
       <c r="K9">
-        <v>1.037539541877318</v>
+        <v>1.008066962414606</v>
       </c>
       <c r="L9">
-        <v>1.053280493782769</v>
+        <v>0.9950932154476241</v>
       </c>
       <c r="M9">
-        <v>1.058911816211804</v>
+        <v>0.9960940843913573</v>
       </c>
       <c r="N9">
-        <v>1.040425682794216</v>
+        <v>0.9979100522680658</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030617933222223</v>
+        <v>0.9543882543623252</v>
       </c>
       <c r="D10">
-        <v>1.032534507281851</v>
+        <v>0.9835918081948494</v>
       </c>
       <c r="E10">
-        <v>1.047676960072453</v>
+        <v>0.9677758420551359</v>
       </c>
       <c r="F10">
-        <v>1.053081206383013</v>
+        <v>0.9673811996480653</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031878832833938</v>
+        <v>1.029859602214482</v>
       </c>
       <c r="J10">
-        <v>1.036987170594801</v>
+        <v>0.9845361757359291</v>
       </c>
       <c r="K10">
-        <v>1.035992533519511</v>
+        <v>0.9982637749182212</v>
       </c>
       <c r="L10">
-        <v>1.051081350540496</v>
+        <v>0.9827523526116095</v>
       </c>
       <c r="M10">
-        <v>1.056466865732703</v>
+        <v>0.9823654764391964</v>
       </c>
       <c r="N10">
-        <v>1.038459811321137</v>
+        <v>0.985934330033352</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029524949407738</v>
+        <v>0.9473059708674944</v>
       </c>
       <c r="D11">
-        <v>1.031735443485938</v>
+        <v>0.9784202614204311</v>
       </c>
       <c r="E11">
-        <v>1.046598055911894</v>
+        <v>0.9614217268131068</v>
       </c>
       <c r="F11">
-        <v>1.051896146386361</v>
+        <v>0.9603780473473567</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031612316348034</v>
+        <v>1.02753945539628</v>
       </c>
       <c r="J11">
-        <v>1.036132898542676</v>
+        <v>0.9790479514613354</v>
       </c>
       <c r="K11">
-        <v>1.035318428794749</v>
+        <v>0.9937609465911581</v>
       </c>
       <c r="L11">
-        <v>1.050126310291619</v>
+        <v>0.9771097848961888</v>
       </c>
       <c r="M11">
-        <v>1.055405303620334</v>
+        <v>0.9760879634755881</v>
       </c>
       <c r="N11">
-        <v>1.037604326104711</v>
+        <v>0.9804383118507802</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029118354892474</v>
+        <v>0.9446085366340018</v>
       </c>
       <c r="D12">
-        <v>1.031438089413927</v>
+        <v>0.9764525405105239</v>
       </c>
       <c r="E12">
-        <v>1.046196952182751</v>
+        <v>0.9590065217673671</v>
       </c>
       <c r="F12">
-        <v>1.051455590696645</v>
+        <v>0.9577154147202452</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031512759359097</v>
+        <v>1.026653097159367</v>
       </c>
       <c r="J12">
-        <v>1.03581493479352</v>
+        <v>0.9769573452993439</v>
       </c>
       <c r="K12">
-        <v>1.035067390315669</v>
+        <v>0.9920452183132628</v>
       </c>
       <c r="L12">
-        <v>1.04977113300599</v>
+        <v>0.9749636138656692</v>
       </c>
       <c r="M12">
-        <v>1.055010545276829</v>
+        <v>0.973700175350784</v>
       </c>
       <c r="N12">
-        <v>1.037285910810561</v>
+        <v>0.9783447367882425</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029205598715121</v>
+        <v>0.9451902973133786</v>
       </c>
       <c r="D13">
-        <v>1.031501897743273</v>
+        <v>0.9768768270060258</v>
       </c>
       <c r="E13">
-        <v>1.046283006384439</v>
+        <v>0.9595271871149733</v>
       </c>
       <c r="F13">
-        <v>1.051550108449394</v>
+        <v>0.9582894547888812</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031534140120306</v>
+        <v>1.026844377237156</v>
       </c>
       <c r="J13">
-        <v>1.035883168654718</v>
+        <v>0.9774082402968324</v>
       </c>
       <c r="K13">
-        <v>1.035121268298359</v>
+        <v>0.9924152811157922</v>
       </c>
       <c r="L13">
-        <v>1.049847339529438</v>
+        <v>0.9754263460152259</v>
       </c>
       <c r="M13">
-        <v>1.05509524272912</v>
+        <v>0.9742150081272047</v>
       </c>
       <c r="N13">
-        <v>1.037354241571668</v>
+        <v>0.9787962721083459</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029491352742392</v>
+        <v>0.9470844086283809</v>
       </c>
       <c r="D14">
-        <v>1.031710875303655</v>
+        <v>0.9782585942253146</v>
       </c>
       <c r="E14">
-        <v>1.046564907785972</v>
+        <v>0.9612232452841466</v>
       </c>
       <c r="F14">
-        <v>1.051859737584957</v>
+        <v>0.960159247643483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031604098402671</v>
+        <v>1.02746670464611</v>
       </c>
       <c r="J14">
-        <v>1.036106628867766</v>
+        <v>0.9788762378027185</v>
       </c>
       <c r="K14">
-        <v>1.035297691105663</v>
+        <v>0.9936200330645564</v>
       </c>
       <c r="L14">
-        <v>1.050096960129229</v>
+        <v>0.9769334415728592</v>
       </c>
       <c r="M14">
-        <v>1.055372681969996</v>
+        <v>0.9758917699325521</v>
       </c>
       <c r="N14">
-        <v>1.03757801912385</v>
+        <v>0.9802663543390721</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029667333731932</v>
+        <v>0.948242347579635</v>
       </c>
       <c r="D15">
-        <v>1.031839560610782</v>
+        <v>0.9791035891475731</v>
       </c>
       <c r="E15">
-        <v>1.046738549662802</v>
+        <v>0.9622607591141653</v>
       </c>
       <c r="F15">
-        <v>1.052050460613601</v>
+        <v>0.961302939565656</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031647127559561</v>
+        <v>1.027846810515481</v>
       </c>
       <c r="J15">
-        <v>1.03624422372595</v>
+        <v>0.9797736447884133</v>
       </c>
       <c r="K15">
-        <v>1.035406305152262</v>
+        <v>0.9943564538627306</v>
       </c>
       <c r="L15">
-        <v>1.050250701886959</v>
+        <v>0.9778551753602089</v>
       </c>
       <c r="M15">
-        <v>1.055543561806169</v>
+        <v>0.9769172544714355</v>
       </c>
       <c r="N15">
-        <v>1.037715809382515</v>
+        <v>0.9811650357456206</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030690385999362</v>
+        <v>0.9548493475769561</v>
       </c>
       <c r="D16">
-        <v>1.0325874624451</v>
+        <v>0.9839287506445206</v>
       </c>
       <c r="E16">
-        <v>1.047748514962983</v>
+        <v>0.9681901787649423</v>
       </c>
       <c r="F16">
-        <v>1.053159803627218</v>
+        <v>0.9678377647629065</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031896442226254</v>
+        <v>1.030010277437108</v>
       </c>
       <c r="J16">
-        <v>1.037043775427306</v>
+        <v>0.9848934345767661</v>
       </c>
       <c r="K16">
-        <v>1.036037181536906</v>
+        <v>0.9985568172130009</v>
       </c>
       <c r="L16">
-        <v>1.051144673416925</v>
+        <v>0.9831200964568575</v>
       </c>
       <c r="M16">
-        <v>1.056537256205042</v>
+        <v>0.9827745889136479</v>
       </c>
       <c r="N16">
-        <v>1.038516496538996</v>
+        <v>0.986292096222721</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031331045678612</v>
+        <v>0.9588829836108861</v>
       </c>
       <c r="D17">
-        <v>1.033055638495014</v>
+        <v>0.9868775405957947</v>
       </c>
       <c r="E17">
-        <v>1.048381429337389</v>
+        <v>0.9718182236563832</v>
       </c>
       <c r="F17">
-        <v>1.053855019223091</v>
+        <v>0.9718350981238171</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032051835679836</v>
+        <v>1.031326258027504</v>
       </c>
       <c r="J17">
-        <v>1.037544168820406</v>
+        <v>0.9880183740304038</v>
       </c>
       <c r="K17">
-        <v>1.03643177218528</v>
+        <v>1.001119633833531</v>
       </c>
       <c r="L17">
-        <v>1.051704680495484</v>
+        <v>0.9863391085108415</v>
       </c>
       <c r="M17">
-        <v>1.05715979300366</v>
+        <v>0.986355664263887</v>
       </c>
       <c r="N17">
-        <v>1.039017600548111</v>
+        <v>0.9894214734488185</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031704349349039</v>
+        <v>0.9611980826830321</v>
       </c>
       <c r="D18">
-        <v>1.033328373680561</v>
+        <v>0.9885709510273392</v>
       </c>
       <c r="E18">
-        <v>1.048750382079084</v>
+        <v>0.9739033399374307</v>
       </c>
       <c r="F18">
-        <v>1.054260298775509</v>
+        <v>0.9741320739906397</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032142116783445</v>
+        <v>1.032079765523959</v>
       </c>
       <c r="J18">
-        <v>1.037835631131653</v>
+        <v>0.9898116009618806</v>
       </c>
       <c r="K18">
-        <v>1.036661521758398</v>
+        <v>1.00258992475103</v>
       </c>
       <c r="L18">
-        <v>1.05203105416775</v>
+        <v>0.9881882715083447</v>
       </c>
       <c r="M18">
-        <v>1.057522631017408</v>
+        <v>0.9884127779465042</v>
       </c>
       <c r="N18">
-        <v>1.03930947676927</v>
+        <v>0.9912172469682238</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031831571858127</v>
+        <v>0.96198128586051</v>
       </c>
       <c r="D19">
-        <v>1.033421311272417</v>
+        <v>0.9891439875557292</v>
       </c>
       <c r="E19">
-        <v>1.04887614928759</v>
+        <v>0.9746092065992327</v>
       </c>
       <c r="F19">
-        <v>1.054398450421223</v>
+        <v>0.974909599334567</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032172839832236</v>
+        <v>1.032334368603845</v>
       </c>
       <c r="J19">
-        <v>1.037934943272024</v>
+        <v>0.9904181926923076</v>
       </c>
       <c r="K19">
-        <v>1.036739791410487</v>
+        <v>1.003087212952233</v>
       </c>
       <c r="L19">
-        <v>1.052142293912172</v>
+        <v>0.9888141141974883</v>
       </c>
       <c r="M19">
-        <v>1.05764630280798</v>
+        <v>0.9891089958591263</v>
       </c>
       <c r="N19">
-        <v>1.039408929944272</v>
+        <v>0.9918247001284852</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031262348606441</v>
+        <v>0.958454155753356</v>
       </c>
       <c r="D20">
-        <v>1.033005443284532</v>
+        <v>0.9865639438346447</v>
       </c>
       <c r="E20">
-        <v>1.048313546004334</v>
+        <v>0.9714322212719384</v>
       </c>
       <c r="F20">
-        <v>1.053780452855438</v>
+        <v>0.9714098457141062</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032035200416855</v>
+        <v>1.0311865380109</v>
       </c>
       <c r="J20">
-        <v>1.037490523700523</v>
+        <v>0.9876861851401527</v>
       </c>
       <c r="K20">
-        <v>1.036389478658487</v>
+        <v>1.000847237415436</v>
       </c>
       <c r="L20">
-        <v>1.051644624949225</v>
+        <v>0.98599671575155</v>
       </c>
       <c r="M20">
-        <v>1.057093029465751</v>
+        <v>0.985974764491825</v>
       </c>
       <c r="N20">
-        <v>1.038963879246004</v>
+        <v>0.9890888128122407</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029407222308404</v>
+        <v>0.9465285477959926</v>
       </c>
       <c r="D21">
-        <v>1.031649351775939</v>
+        <v>0.9778530325834743</v>
       </c>
       <c r="E21">
-        <v>1.046481904640538</v>
+        <v>0.9607253696525853</v>
       </c>
       <c r="F21">
-        <v>1.051768569903083</v>
+        <v>0.9596103933450102</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031583512949368</v>
+        <v>1.02728414340841</v>
       </c>
       <c r="J21">
-        <v>1.036040843415071</v>
+        <v>0.9784454342108155</v>
       </c>
       <c r="K21">
-        <v>1.035245756890688</v>
+        <v>0.9932664949017317</v>
       </c>
       <c r="L21">
-        <v>1.050023465134133</v>
+        <v>0.9764910749529953</v>
       </c>
       <c r="M21">
-        <v>1.055290995477421</v>
+        <v>0.9753996059769138</v>
       </c>
       <c r="N21">
-        <v>1.037512140248266</v>
+        <v>0.979834938956655</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028237284420058</v>
+        <v>0.9386395865328068</v>
       </c>
       <c r="D22">
-        <v>1.030793558252417</v>
+        <v>0.9721024409056499</v>
       </c>
       <c r="E22">
-        <v>1.045328243188202</v>
+        <v>0.9536715667534013</v>
       </c>
       <c r="F22">
-        <v>1.050501461436864</v>
+        <v>0.9518324338640182</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031296271821579</v>
+        <v>1.024687018594317</v>
       </c>
       <c r="J22">
-        <v>1.035125610762432</v>
+        <v>0.9723308935650052</v>
       </c>
       <c r="K22">
-        <v>1.034522911711704</v>
+        <v>0.9882475792936406</v>
       </c>
       <c r="L22">
-        <v>1.049001667134939</v>
+        <v>0.9702202690987964</v>
       </c>
       <c r="M22">
-        <v>1.054155392541662</v>
+        <v>0.9684225499136688</v>
       </c>
       <c r="N22">
-        <v>1.036595607860281</v>
+        <v>0.97371171496178</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028857831779814</v>
+        <v>0.9428615067997481</v>
       </c>
       <c r="D23">
-        <v>1.031247533817561</v>
+        <v>0.9751787278972919</v>
       </c>
       <c r="E23">
-        <v>1.045940018524227</v>
+        <v>0.957443707429159</v>
       </c>
       <c r="F23">
-        <v>1.051173389227819</v>
+        <v>0.9559922762649335</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031448852984364</v>
+        <v>1.026078305460496</v>
       </c>
       <c r="J23">
-        <v>1.035611153286835</v>
+        <v>0.9756032787078249</v>
       </c>
       <c r="K23">
-        <v>1.034906463332512</v>
+        <v>0.9909338328439465</v>
       </c>
       <c r="L23">
-        <v>1.049543583803669</v>
+        <v>0.9735744794760928</v>
       </c>
       <c r="M23">
-        <v>1.054757647560098</v>
+        <v>0.9721546125647875</v>
       </c>
       <c r="N23">
-        <v>1.037081839910762</v>
+        <v>0.9769887472668501</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031293391037474</v>
+        <v>0.9586480404275626</v>
       </c>
       <c r="D24">
-        <v>1.033028125402474</v>
+        <v>0.986705726462791</v>
       </c>
       <c r="E24">
-        <v>1.04834422022638</v>
+        <v>0.9716067346854232</v>
       </c>
       <c r="F24">
-        <v>1.053814146891567</v>
+        <v>0.9716021054099813</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032042718280108</v>
+        <v>1.031249714816231</v>
       </c>
       <c r="J24">
-        <v>1.037514764883881</v>
+        <v>0.987836377755453</v>
       </c>
       <c r="K24">
-        <v>1.036408590544932</v>
+        <v>1.00097039719438</v>
       </c>
       <c r="L24">
-        <v>1.051671762296593</v>
+        <v>0.9861515157712963</v>
       </c>
       <c r="M24">
-        <v>1.0571231978911</v>
+        <v>0.9861469741212994</v>
       </c>
       <c r="N24">
-        <v>1.038988154854623</v>
+        <v>0.989239218718282</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034104776961387</v>
+        <v>0.9755065599457293</v>
       </c>
       <c r="D25">
-        <v>1.035080941841678</v>
+        <v>0.9990508168955914</v>
       </c>
       <c r="E25">
-        <v>1.051125755971845</v>
+        <v>0.9868370636897008</v>
       </c>
       <c r="F25">
-        <v>1.05686970968785</v>
+        <v>0.9883741158089679</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032717865110588</v>
+        <v>1.036703737632021</v>
       </c>
       <c r="J25">
-        <v>1.039707807601275</v>
+        <v>1.000887308417629</v>
       </c>
       <c r="K25">
-        <v>1.03813573263671</v>
+        <v>1.011663885600903</v>
       </c>
       <c r="L25">
-        <v>1.054130887086238</v>
+        <v>0.999643212945037</v>
       </c>
       <c r="M25">
-        <v>1.05985746251932</v>
+        <v>1.001155630134117</v>
       </c>
       <c r="N25">
-        <v>1.041184311944222</v>
+        <v>1.002308683198961</v>
       </c>
     </row>
   </sheetData>
